--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>598479.5634861038</v>
+        <v>595998.6436606447</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11614409.82306414</v>
+        <v>11614409.82306413</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579955</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104944</v>
+        <v>82.26761520104937</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830085</v>
@@ -1436,7 +1436,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>244.1476434986424</v>
+        <v>1.60049486420699</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
         <v>140.3266745115014</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>90.12097307876985</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271169</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>48.63269123572466</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>86.66051676164433</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>82.26761520104938</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>18.86496877806714</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
         <v>342.8109540913426</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>107.0733734269366</v>
       </c>
       <c r="D16" t="n">
         <v>121.6953264310859</v>
@@ -1774,7 +1774,7 @@
         <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>62.01200608292089</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
         <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
         <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>117.9297069703309</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577617</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652887</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149641</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477346</v>
+        <v>312.8128825920934</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816016</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.5830157193875</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531831</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116941</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290894</v>
+        <v>93.35153789290878</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249346</v>
+        <v>74.7201898124933</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085027</v>
+        <v>72.53867944085012</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721235</v>
+        <v>71.52576481721219</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330933</v>
+        <v>92.13052505330917</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860188</v>
+        <v>70.85973170860173</v>
       </c>
       <c r="I19" t="n">
-        <v>22.4571372041192</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432843</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S19" t="n">
-        <v>115.873742125723</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0533602654115</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
-        <v>212.316554999894</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181091</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308721</v>
+        <v>275.0274093258354</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833183</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463759</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652887</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149641</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477346</v>
+        <v>3.974324134331802</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816016</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245691</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531831</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.2712996729224</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290894</v>
+        <v>93.35153789290878</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249346</v>
+        <v>74.7201898124933</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085027</v>
+        <v>72.53867944085012</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721235</v>
+        <v>71.52576481721219</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330933</v>
+        <v>92.13052505330917</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860188</v>
+        <v>70.85973170860173</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411919</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432842</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S22" t="n">
-        <v>115.873742125723</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704503</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
-        <v>212.316554999894</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181091</v>
+        <v>240.6420543130723</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308721</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X22" t="n">
-        <v>214.21406637828</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463759</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247762</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411913</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432836</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>178.2734363206864</v>
       </c>
       <c r="T25" t="n">
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>240.6420543130712</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
         <v>172.5738126575766</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333694</v>
+        <v>134.2912433677303</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>231.0452163728799</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846428</v>
+        <v>90.95618068285765</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>143.0438109257875</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>124.3541982182256</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.20693826439391</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3958,13 +3958,13 @@
         <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441566</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136072</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
         <v>230.06753824203</v>
@@ -4040,7 +4040,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052294</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846428</v>
+        <v>90.95618068285785</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092333</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>230.7340562419014</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>154.4529230957231</v>
@@ -4198,10 +4198,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1481.978886828184</v>
+        <v>1500.637597194506</v>
       </c>
       <c r="C11" t="n">
-        <v>1481.978886828184</v>
+        <v>1158.867147513818</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828184</v>
+        <v>827.7935161667913</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>469.1973308282708</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597798</v>
+        <v>469.1973308282708</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645002</v>
+        <v>81.31694793299101</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299104</v>
+        <v>81.31694793299101</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395991</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039936</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.721540039936</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2759.85071995609</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2434.274131945699</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.000440944343</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>1841.386659632582</v>
+        <v>1860.045369998904</v>
       </c>
     </row>
     <row r="12">
@@ -5094,73 +5094,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>659.3195179487113</v>
+        <v>418.3126375609365</v>
       </c>
       <c r="C13" t="n">
-        <v>517.575402280528</v>
+        <v>276.5685218927533</v>
       </c>
       <c r="D13" t="n">
-        <v>517.575402280528</v>
+        <v>276.5685218927533</v>
       </c>
       <c r="E13" t="n">
-        <v>396.8543759578586</v>
+        <v>276.5685218927533</v>
       </c>
       <c r="F13" t="n">
-        <v>277.1564957196719</v>
+        <v>185.537235954602</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6457263541144</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,37 +5212,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058533</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145083</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974333</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.5229443597</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1470.399013818565</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.173911041328</v>
+        <v>967.1670306535525</v>
       </c>
       <c r="X13" t="n">
-        <v>1007.376427403034</v>
+        <v>766.3695470152588</v>
       </c>
       <c r="Y13" t="n">
-        <v>813.7759155192274</v>
+        <v>572.7690351314525</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2154.822967855899</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.052518175211</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.978886828184</v>
+        <v>808.233362610389</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>720.6974870935766</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597799</v>
+        <v>336.9036495636926</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645001</v>
+        <v>336.9036495636926</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395991</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.507220395991</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>3242.507220395991</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>3223.451696377741</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>3223.451696377741</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>2877.178005376385</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>2514.230740660297</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5343,46 +5343,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>499.9892050675829</v>
+        <v>418.3126375609363</v>
       </c>
       <c r="C16" t="n">
-        <v>499.9892050675829</v>
+        <v>310.1577149074649</v>
       </c>
       <c r="D16" t="n">
-        <v>377.0646329149709</v>
+        <v>187.2331427548528</v>
       </c>
       <c r="E16" t="n">
-        <v>256.3436065923014</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L16" t="n">
         <v>712.1345656402571</v>
@@ -5464,22 +5464,22 @@
         <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991586</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
         <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.39213343079</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535527</v>
+        <v>967.1670306535523</v>
       </c>
       <c r="X16" t="n">
-        <v>848.0461145219053</v>
+        <v>766.3695470152586</v>
       </c>
       <c r="Y16" t="n">
-        <v>654.445602638099</v>
+        <v>572.7690351314523</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666652</v>
+        <v>1830.862197398327</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934038</v>
+        <v>1536.541380665712</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>1252.917382266759</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446366</v>
+        <v>941.7708298763114</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628259</v>
+        <v>605.4266252945008</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.875502700699</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3179.539455292718</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3000.650678774351</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2744.229491638578</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W17" t="n">
-        <v>2466.10253657626</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2167.278478522977</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522977</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,31 +5610,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501176</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872294</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671193</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625804</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879842</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978707</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803865</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604121</v>
+        <v>89.19609340604106</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,7 +5692,7 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
         <v>1912.105791053817</v>
@@ -5701,22 +5701,22 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.906697729439</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.44553106288</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.40274306479</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356258</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454054</v>
+        <v>822.279422545404</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096722</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.976134084842</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.655317352227</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D20" t="n">
-        <v>941.0313189532734</v>
+        <v>940.9592424104342</v>
       </c>
       <c r="E20" t="n">
-        <v>629.884766562826</v>
+        <v>629.812690019987</v>
       </c>
       <c r="F20" t="n">
-        <v>629.884766562826</v>
+        <v>293.4684854381766</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5783,19 +5783,19 @@
         <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281942</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W20" t="n">
         <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.359829166341</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.934273941167</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5820,37 +5820,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872294</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671193</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625804</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879842</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978707</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803865</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.1960934060412</v>
+        <v>89.19609340604106</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5929,10 +5929,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
         <v>1795.061607088441</v>
@@ -5941,19 +5941,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454054</v>
+        <v>822.279422545404</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096722</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="23">
@@ -5963,58 +5963,58 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.185977056952</v>
       </c>
       <c r="C23" t="n">
         <v>1567.865160324337</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925384</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349359</v>
+        <v>973.0946095349365</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531253</v>
+        <v>636.7504049531259</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>262.2568857815079</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713543</v>
+        <v>596.0762594713544</v>
       </c>
       <c r="L23" t="n">
-        <v>1383.526753844413</v>
+        <v>1383.526753844414</v>
       </c>
       <c r="M23" t="n">
         <v>1917.058658516338</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.83747557512</v>
+        <v>2463.837475575121</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454457</v>
+        <v>2966.809946454458</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3361.584312811636</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124121</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859013</v>
       </c>
       <c r="T23" t="n">
         <v>3501.902725451032</v>
@@ -6023,16 +6023,16 @@
         <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.592761796892</v>
       </c>
       <c r="W23" t="n">
         <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.641748681292</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913277</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714078</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902808</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290295</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.784598923574</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.250040950459</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830771</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094466</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J24" t="n">
         <v>167.0550243130998</v>
@@ -6090,10 +6090,10 @@
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516156</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009636</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
@@ -6105,7 +6105,7 @@
         <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861963</v>
       </c>
       <c r="X24" t="n">
         <v>1324.38512865643</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775278</v>
+        <v>575.9874173775274</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574178</v>
+        <v>481.6929346574175</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528791</v>
+        <v>406.2179954528788</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782829</v>
+        <v>332.9466020782826</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881695</v>
+        <v>260.6983547881693</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706854</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634011</v>
+        <v>96.06173179634006</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182944</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667904</v>
+        <v>639.0473686667905</v>
       </c>
       <c r="M25" t="n">
         <v>983.2044142663394</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342413</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119736</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455088</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259242</v>
+        <v>982.4929116259235</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357038</v>
+        <v>829.1450609357032</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999706</v>
+        <v>682.9941819999701</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689498</v>
       </c>
       <c r="C26" t="n">
         <v>1711.59465869716</v>
@@ -6236,31 +6236,31 @@
         <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285457</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164794</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521972</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
         <v>3629.89585086383</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146292</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572846</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6318,25 +6318,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T27" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V27" t="n">
         <v>1794.243147664371</v>
@@ -6345,10 +6345,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6443,49 +6443,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467793</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1706.925601880499</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415471</v>
@@ -6613,22 +6613,22 @@
         <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6661,10 +6661,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6680,22 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
@@ -6707,22 +6707,22 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>1653.273486349</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2200.052303407782</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
@@ -6734,16 +6734,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6920,7 +6920,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307332</v>
@@ -6935,19 +6935,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939509</v>
@@ -6965,10 +6965,10 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746128</v>
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
         <v>618.1564155387305</v>
@@ -7002,46 +7002,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927788</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909359</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368723</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D37" t="n">
-        <v>379.22087719838</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1791.646827515028</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084554</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1280.777345210198</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1026.092857004311</v>
       </c>
       <c r="W37" t="n">
-        <v>1131.361425262723</v>
+        <v>835.3471215411932</v>
       </c>
       <c r="X37" t="n">
-        <v>903.3718743647057</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y37" t="n">
-        <v>682.5792952211756</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="38">
@@ -7154,64 +7154,64 @@
         <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495735</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
@@ -7242,22 +7242,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.6022649647796</v>
+        <v>444.8926667912274</v>
       </c>
       <c r="C40" t="n">
-        <v>529.337516610716</v>
+        <v>374.6279184371638</v>
       </c>
       <c r="D40" t="n">
-        <v>477.8923117722235</v>
+        <v>323.1827135986715</v>
       </c>
       <c r="E40" t="n">
-        <v>428.6506527636737</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>380.4321398396067</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143257</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1692.975392941185</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1471.208777510711</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1280.777345210198</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1124.764291578154</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>934.0185561150367</v>
+        <v>976.6518270891712</v>
       </c>
       <c r="X40" t="n">
-        <v>804.7004397908627</v>
+        <v>748.6622761911539</v>
       </c>
       <c r="Y40" t="n">
-        <v>682.5792952211759</v>
+        <v>527.8696970476237</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7409,28 +7409,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7448,13 +7448,13 @@
         <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7488,13 +7488,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.9308303909361</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404823</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.661277114358</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T43" t="n">
-        <v>1612.513483058689</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U43" t="n">
-        <v>1323.410616184332</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V43" t="n">
-        <v>1167.397562552288</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W43" t="n">
-        <v>877.9803925153278</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X43" t="n">
-        <v>748.6622761911538</v>
+        <v>804.7004397908623</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.541131621467</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464971</v>
+        <v>894.139768046498</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912089</v>
@@ -7667,31 +7667,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7722,13 +7722,13 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
         <v>765.1517452158131</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.9308303909361</v>
+        <v>642.2355359389142</v>
       </c>
       <c r="C46" t="n">
-        <v>430.6660820368725</v>
+        <v>473.2993530110073</v>
       </c>
       <c r="D46" t="n">
-        <v>379.2208771983802</v>
+        <v>421.854148172515</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898304</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657634</v>
+        <v>281.7607052657633</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
-        <v>1280.777345210197</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V46" t="n">
-        <v>1124.764291578154</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>934.0185561150365</v>
+        <v>976.6518270891712</v>
       </c>
       <c r="X46" t="n">
-        <v>804.7004397908626</v>
+        <v>847.3337107649972</v>
       </c>
       <c r="Y46" t="n">
-        <v>682.5792952211758</v>
+        <v>725.2125661953105</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430634</v>
+        <v>157.2353108430623</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729012</v>
+        <v>184.4039433728995</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389609</v>
+        <v>191.4948909389588</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333072</v>
+        <v>181.085632533305</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830246</v>
+        <v>179.3553748830223</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383995</v>
+        <v>182.8301554383974</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586589</v>
+        <v>190.8908035586571</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266127</v>
+        <v>192.0103836266113</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875976</v>
+        <v>112.6562001875969</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372536</v>
+        <v>113.6031223372524</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672277</v>
+        <v>105.9629718672262</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253597</v>
+        <v>104.1013981253579</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677696</v>
+        <v>92.30246558677516</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359739</v>
+        <v>106.8829608359723</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798327</v>
+        <v>105.3113487798314</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.821278461546</v>
+        <v>120.8212784615451</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.175525256466</v>
+        <v>116.1755252564651</v>
       </c>
       <c r="M10" t="n">
-        <v>119.199607408523</v>
+        <v>119.199607408522</v>
       </c>
       <c r="N10" t="n">
-        <v>108.428412314078</v>
+        <v>108.4284123140771</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530926</v>
+        <v>120.6694600530918</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662706</v>
+        <v>122.5080856662699</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>339.8144253784344</v>
+        <v>339.8144253784347</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-2.060573933704291e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665416</v>
+        <v>209.1187564935597</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,16 +10112,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>334.4868774152279</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.835176366543</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>65.5171180637426</v>
       </c>
       <c r="N32" t="n">
-        <v>274.835176366543</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>115.1701485702848</v>
+        <v>357.7172972047201</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>28.37992835703493</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292093</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>176.584805500977</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>268.349706723491</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579948</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>281.9671431049413</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>33.2533010845648</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
         <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>80.8598018315798</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>24.213559855641</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>20.70946286306944</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.0521183134026</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0713557774122978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1072813.294726361</v>
+        <v>1072813.29472636</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>887646.8803862166</v>
+        <v>887646.8803862167</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>887646.8803862168</v>
+        <v>887646.8803862166</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>965635.8647960903</v>
+        <v>965635.8647960905</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>965635.8647960903</v>
+        <v>965635.8647960905</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>997449.0031373866</v>
+        <v>997449.0031373868</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26317,19 @@
         <v>450601.9862943711</v>
       </c>
       <c r="D2" t="n">
-        <v>450614.2683932705</v>
+        <v>450614.2683932703</v>
       </c>
       <c r="E2" t="n">
-        <v>401247.0004977359</v>
+        <v>401247.0004977356</v>
       </c>
       <c r="F2" t="n">
-        <v>401247.0004977359</v>
+        <v>401247.0004977358</v>
       </c>
       <c r="G2" t="n">
+        <v>436991.9516855948</v>
+      </c>
+      <c r="H2" t="n">
         <v>436991.9516855949</v>
-      </c>
-      <c r="H2" t="n">
-        <v>436991.9516855947</v>
       </c>
       <c r="I2" t="n">
         <v>451572.9734253557</v>
@@ -26341,16 +26341,16 @@
         <v>451572.9734253561</v>
       </c>
       <c r="L2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.973425356</v>
       </c>
       <c r="M2" t="n">
+        <v>451572.9734253557</v>
+      </c>
+      <c r="N2" t="n">
+        <v>451572.9734253557</v>
+      </c>
+      <c r="O2" t="n">
         <v>451572.9734253556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>451572.9734253558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>451572.9734253557</v>
       </c>
       <c r="P2" t="n">
         <v>451572.9734253557</v>
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552221</v>
+        <v>59764.55367552496</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.97216363</v>
       </c>
       <c r="F3" t="n">
-        <v>2.081480943161296e-10</v>
+        <v>1.569890173414023e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.1092948738</v>
+        <v>37580.10929487392</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983355</v>
+        <v>22821.4678298339</v>
       </c>
       <c r="J3" t="n">
         <v>25409.43302179686</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.109294874</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954653</v>
+        <v>430603.4278954643</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364971</v>
+        <v>40024.16194364981</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364974</v>
+        <v>40024.16194364976</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.3223050919</v>
+        <v>77052.32230509204</v>
       </c>
       <c r="H4" t="n">
-        <v>77052.32230509186</v>
+        <v>77052.32230509201</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.51027754383</v>
+        <v>90617.51027754389</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699578</v>
+        <v>88960.95519699577</v>
       </c>
       <c r="K4" t="n">
         <v>88960.95519699581</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699581</v>
+        <v>88960.9551969958</v>
       </c>
       <c r="M4" t="n">
+        <v>92183.89891818166</v>
+      </c>
+      <c r="N4" t="n">
+        <v>92183.89891818169</v>
+      </c>
+      <c r="O4" t="n">
         <v>92183.89891818172</v>
       </c>
-      <c r="N4" t="n">
-        <v>92183.89891818167</v>
-      </c>
-      <c r="O4" t="n">
-        <v>92183.89891818166</v>
-      </c>
       <c r="P4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818177</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186634</v>
+        <v>35148.90543186641</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
         <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184213</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35425.60425459404</v>
+        <v>-35430.01783246215</v>
       </c>
       <c r="C6" t="n">
-        <v>-35425.60425459404</v>
+        <v>-35430.01783246215</v>
       </c>
       <c r="D6" t="n">
-        <v>-74902.61860958334</v>
+        <v>-74906.97635973123</v>
       </c>
       <c r="E6" t="n">
-        <v>-804585.6239743731</v>
+        <v>-804814.3783967686</v>
       </c>
       <c r="F6" t="n">
-        <v>284653.3481892595</v>
+        <v>284424.5937668611</v>
       </c>
       <c r="G6" t="n">
-        <v>241840.8769604143</v>
+        <v>241774.5995888696</v>
       </c>
       <c r="H6" t="n">
-        <v>279420.9862552877</v>
+        <v>279354.7088837436</v>
       </c>
       <c r="I6" t="n">
-        <v>252397.4670161362</v>
+        <v>252397.4670161357</v>
       </c>
       <c r="J6" t="n">
         <v>247824.6435317575</v>
@@ -26549,19 +26549,19 @@
         <v>273234.0765535542</v>
       </c>
       <c r="L6" t="n">
-        <v>235653.9672586803</v>
+        <v>235653.96725868</v>
       </c>
       <c r="M6" t="n">
-        <v>74702.37720819967</v>
+        <v>74702.37720820001</v>
       </c>
       <c r="N6" t="n">
-        <v>276870.4772009243</v>
+        <v>276870.4772009241</v>
       </c>
       <c r="O6" t="n">
-        <v>276870.4772009242</v>
+        <v>276870.4772009241</v>
       </c>
       <c r="P6" t="n">
-        <v>276870.4772009242</v>
+        <v>276870.4772009241</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G2" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H2" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859257</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
+        <v>97.68472022810489</v>
+      </c>
+      <c r="N2" t="n">
+        <v>97.68472022810492</v>
+      </c>
+      <c r="O2" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="N2" t="n">
-        <v>97.68472022810489</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68472022810489</v>
-      </c>
       <c r="P2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790574</v>
+        <v>69.78465283790895</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810301</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26823,13 +26823,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
     </row>
   </sheetData>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951239</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790574</v>
+        <v>69.78465283790895</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.992047755389</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873716</v>
+        <v>85.8204798787375</v>
       </c>
       <c r="J4" t="n">
         <v>97.11452592758428</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959712</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104728</v>
+        <v>199.6603204104723</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780176</v>
+        <v>132.2465643780168</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.627234303657</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448432</v>
+        <v>221.8677799448431</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256562</v>
+        <v>110.7857668256561</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672112</v>
+        <v>84.22861846672087</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987527</v>
+        <v>90.83829126987483</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.8950767192289</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241795</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519093</v>
+        <v>84.46220888519052</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990474</v>
+        <v>7.649035050989802</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317062</v>
+        <v>75.62456067317014</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.6351144437876</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="L13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="M13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="N13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="O13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="P13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="R13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="S13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C17" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D17" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E17" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F17" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G17" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H17" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T17" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U17" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V17" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W17" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X17" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C19" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D19" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E19" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F19" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G19" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H19" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I19" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="S19" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T19" t="n">
-        <v>11.4955890107577</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U19" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V19" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W19" t="n">
-        <v>73.8952832057189</v>
+        <v>11.49558901075562</v>
       </c>
       <c r="X19" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C20" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D20" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E20" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F20" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G20" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H20" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T20" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U20" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V20" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W20" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X20" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C22" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D22" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E22" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F22" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G22" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H22" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I22" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="S22" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T22" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U22" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V22" t="n">
-        <v>73.8952832057189</v>
+        <v>11.49558901075574</v>
       </c>
       <c r="W22" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X22" t="n">
-        <v>11.49558901075716</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075554</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V25" t="n">
-        <v>11.49558901075685</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371155</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>55.47778196371112</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371152</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>46.72521440565444</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.47778196371169</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>46.72521440565342</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371132</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>55.47778196371152</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413294</v>
+        <v>0.2805413179413423</v>
       </c>
       <c r="H8" t="n">
-        <v>2.87309377236664</v>
+        <v>2.873093772366773</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993311</v>
+        <v>10.81556915993361</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362293</v>
+        <v>23.81059368362402</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207941</v>
+        <v>35.68590767208105</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102637</v>
+        <v>44.27152403102841</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396549</v>
+        <v>49.26060069396776</v>
       </c>
       <c r="N8" t="n">
-        <v>50.0576887135663</v>
+        <v>50.0576887135686</v>
       </c>
       <c r="O8" t="n">
-        <v>47.2680559832872</v>
+        <v>47.26805598328937</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661063</v>
+        <v>40.34219219661248</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783676</v>
+        <v>30.29530624783815</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313205</v>
+        <v>17.62255356313286</v>
       </c>
       <c r="S8" t="n">
-        <v>6.39283528258805</v>
+        <v>6.392835282588345</v>
       </c>
       <c r="T8" t="n">
-        <v>1.22806961928817</v>
+        <v>1.228069619288227</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530635</v>
+        <v>0.02244330543530738</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796463</v>
+        <v>0.1501028381796532</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840269</v>
+        <v>1.449677410840335</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693963</v>
+        <v>5.168014384694201</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906913</v>
+        <v>14.18142647906978</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710543</v>
+        <v>24.23831663710655</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264645</v>
+        <v>32.59140791264795</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665862</v>
+        <v>38.03263579666037</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655634</v>
+        <v>39.03924649655814</v>
       </c>
       <c r="O9" t="n">
-        <v>35.7132836084705</v>
+        <v>35.71328360847214</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449755</v>
+        <v>28.66305863449887</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447555</v>
+        <v>19.16049562447644</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767868</v>
+        <v>9.319542882768298</v>
       </c>
       <c r="S9" t="n">
-        <v>2.78809438460878</v>
+        <v>2.788094384608908</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890128</v>
+        <v>0.6050197731890405</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345155</v>
+        <v>0.00987518672234561</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486825</v>
+        <v>0.1258411772486883</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811014</v>
+        <v>1.118842466811065</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078561</v>
+        <v>3.784387403078735</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481849</v>
+        <v>8.89697123148226</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489238</v>
+        <v>14.62045677489305</v>
       </c>
       <c r="L10" t="n">
-        <v>18.7091510247723</v>
+        <v>18.70915102477316</v>
       </c>
       <c r="M10" t="n">
-        <v>19.7261765390821</v>
+        <v>19.72617653908301</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115521</v>
+        <v>19.2571321511561</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875014</v>
+        <v>17.78707839875096</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287701</v>
+        <v>15.21991838287771</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852377</v>
+        <v>10.53748257852425</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381667</v>
+        <v>5.658276933381927</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233856</v>
+        <v>2.193068516233957</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625522</v>
+        <v>0.537685030062577</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564506</v>
+        <v>0.006864064213564822</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34445,13 +34445,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019262</v>
+        <v>72.49856320019266</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019266</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
         <v>261.8772177322369</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>795.4045397707665</v>
+        <v>795.4045397707669</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36604,7 +36604,7 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>827.1370117794531</v>
+        <v>761.4205919064711</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36756,13 +36756,13 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36832,16 +36832,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>790.07699180756</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37075,22 +37075,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>604.4382338939694</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38035,10 +38035,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
